--- a/Main_API_Assignment/Utility/Assignment.xlsx
+++ b/Main_API_Assignment/Utility/Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vbalasubramaniyam/Documents/GitHub/HuTraining/Main_API_Assignment/Utility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F802BE29-7795-2C41-BD0C-A2B70B866D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D904A71-D629-6B45-A7CA-3B61B66CC0C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1480" yWindow="1320" windowWidth="27640" windowHeight="16940" xr2:uid="{6423E178-F58C-F64F-A78F-C0B6757F79EF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Password</t>
   </si>
@@ -51,21 +51,6 @@
     <t>TestCase2</t>
   </si>
   <si>
-    <t>TestCase3</t>
-  </si>
-  <si>
-    <t>Vino@123</t>
-  </si>
-  <si>
-    <t>9952622682</t>
-  </si>
-  <si>
-    <t>TestCase4</t>
-  </si>
-  <si>
-    <t>TestCase5</t>
-  </si>
-  <si>
     <t>Muhammad Nur Ali</t>
   </si>
   <si>
@@ -82,6 +67,9 @@
   </si>
   <si>
     <t>Eat Banana,Play Music,Play Movie,Ride Bike,Getout,Clean Home,Play TV,Play Cricket,Go ride,Drink coke,Drink Coffee,Call Swiggy,Get Food,Read book,Call Dad,Work well,Complete Assignment,Talk SLow,Yell,Speak</t>
+  </si>
+  <si>
+    <t>12345678jljl</t>
   </si>
 </sst>
 </file>
@@ -452,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E5CD55-E1C1-F648-AE18-5086CF0C9402}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,10 +465,10 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -488,16 +476,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -505,54 +493,22 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="vino@123" xr:uid="{17918D95-38C7-1A4F-8ABA-5F5ECB9B50BD}"/>
-    <hyperlink ref="C4" r:id="rId2" display="vino@123" xr:uid="{7323CFD2-030F-AC44-989A-7DE8991E0F3F}"/>
-    <hyperlink ref="C5" r:id="rId3" display="vino@123" xr:uid="{34A581F4-94C4-204C-B3C7-AAC5530DA32B}"/>
-    <hyperlink ref="C6" r:id="rId4" display="vino@123" xr:uid="{C5D97C1F-53BF-694C-94FA-508E37E17B5C}"/>
-    <hyperlink ref="C2" r:id="rId5" display="vino@123" xr:uid="{B8A0DC05-CADA-944C-90D5-0985DCDF635F}"/>
-    <hyperlink ref="D2" r:id="rId6" xr:uid="{53D2EE56-1B62-D643-9526-3B5D8E1657CA}"/>
+    <hyperlink ref="C2" r:id="rId1" display="vino@123" xr:uid="{B8A0DC05-CADA-944C-90D5-0985DCDF635F}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{53D2EE56-1B62-D643-9526-3B5D8E1657CA}"/>
+    <hyperlink ref="C3" r:id="rId3" display="vino@123" xr:uid="{F3B1FA6A-5B05-0E45-9C9D-B9A0111E214A}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{52CE9D6D-FC75-1D43-96BF-461FCC9ED01F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
